--- a/ObjectHandler/dev_tools/builds.xlsx
+++ b/ObjectHandler/dev_tools/builds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="20">
   <si>
     <t>ObjectHandler_vc?.sln</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Timed Out - the build took too long.</t>
+  </si>
+  <si>
+    <t>VC12 (2013)</t>
   </si>
 </sst>
 </file>
@@ -134,7 +137,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -149,6 +152,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -455,7 +461,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,57 +470,79 @@
     <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="4">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B2" s="6">
         <v>32</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6">
         <v>32</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6">
         <v>32</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6">
         <v>64</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6">
+        <v>32</v>
+      </c>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6">
+        <v>64</v>
+      </c>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -563,8 +591,32 @@
       <c r="Q3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -616,8 +668,32 @@
       <c r="Q4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -669,8 +745,32 @@
       <c r="Q5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -723,7 +823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -754,8 +854,14 @@
       <c r="J7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -784,7 +890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -801,7 +907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
@@ -825,7 +931,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:Y2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="J1:Q1"/>
     <mergeCell ref="B1:E1"/>

--- a/ObjectHandler/dev_tools/builds.xlsx
+++ b/ObjectHandler/dev_tools/builds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="20">
   <si>
     <t>ObjectHandler_vc?.sln</t>
   </si>
@@ -889,6 +889,9 @@
       <c r="I8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="T8" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -932,16 +935,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
     <mergeCell ref="R1:Y1"/>
     <mergeCell ref="R2:U2"/>
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ObjectHandler/dev_tools/builds.xlsx
+++ b/ObjectHandler/dev_tools/builds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="20">
   <si>
     <t>ObjectHandler_vc?.sln</t>
   </si>
@@ -66,9 +66,6 @@
     <t>VC11 (2012)</t>
   </si>
   <si>
-    <t>VC11 - batch build / rebuild of QuantLibAddin - kick it off in the evening - following morning it's still running.</t>
-  </si>
-  <si>
     <t>TO</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>VC12 (2013)</t>
+  </si>
+  <si>
+    <t>VC11 / VC12 - batch build / rebuild of QuantLibAddin - kick it off in the evening - following morning it's still running.</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
@@ -799,28 +799,52 @@
         <v>6</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -912,10 +936,10 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -930,21 +954,21 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="J1:Q1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
-    <mergeCell ref="R1:Y1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="J1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
